--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43237,6 +43237,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43274,6 +43274,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43311,6 +43311,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43348,6 +43348,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43385,6 +43385,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43422,6 +43422,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43459,6 +43459,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43496,6 +43496,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,43 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43642,6 +43642,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43679,6 +43679,76 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43749,6 +43749,78 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43821,6 +43821,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43858,6 +43858,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43895,6 +43895,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43932,6 +43932,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43967,6 +43967,78 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44039,6 +44039,43 @@
         <v>600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44076,6 +44076,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2462"/>
+  <dimension ref="A1:I2463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87268,6 +87268,43 @@
         </is>
       </c>
     </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2463" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2463" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2463" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2463" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2463"/>
+  <dimension ref="A1:I2464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87305,6 +87305,43 @@
         </is>
       </c>
     </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2464" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2464" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2464" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2464" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2464"/>
+  <dimension ref="A1:I2465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87342,6 +87342,43 @@
         </is>
       </c>
     </row>
+    <row r="2465">
+      <c r="A2465" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2465" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2465" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2465" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2465"/>
+  <dimension ref="A1:I2466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87379,6 +87379,43 @@
         </is>
       </c>
     </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2466" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2466" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2466" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2466" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2466"/>
+  <dimension ref="A1:I2467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87416,6 +87416,43 @@
         </is>
       </c>
     </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2467" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2467" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2467" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2467" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2467"/>
+  <dimension ref="A1:I2468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87453,6 +87453,43 @@
         </is>
       </c>
     </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2468" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2468" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2468" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2468" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2468"/>
+  <dimension ref="A1:I2469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87490,6 +87490,43 @@
         </is>
       </c>
     </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2469" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2469" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2469" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2469" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2469"/>
+  <dimension ref="A1:I2470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87527,6 +87527,43 @@
         </is>
       </c>
     </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2470" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2470" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2470" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2470" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2470"/>
+  <dimension ref="A1:I2471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87564,6 +87564,43 @@
         </is>
       </c>
     </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2471" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2471" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2471" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2471" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2471"/>
+  <dimension ref="A1:I2472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87601,6 +87601,43 @@
         </is>
       </c>
     </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2472" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2472"/>
+  <dimension ref="A1:I2473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87638,6 +87638,43 @@
         </is>
       </c>
     </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2473" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2473"/>
+  <dimension ref="A1:I2474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87675,6 +87675,41 @@
         </is>
       </c>
     </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2474" t="n">
+        <v>18500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2474"/>
+  <dimension ref="A1:I2475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87710,6 +87710,41 @@
         <v>18500</v>
       </c>
     </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>52000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87745,6 +87745,41 @@
         <v>52000</v>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2476" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6076.xlsx
+++ b/data/6076.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2476"/>
+  <dimension ref="A1:I2477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87780,6 +87780,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>ENCORP</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2477" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
